--- a/medicine/Enfance/Céline_Ripoll/Céline_Ripoll.xlsx
+++ b/medicine/Enfance/Céline_Ripoll/Céline_Ripoll.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9line_Ripoll</t>
+          <t>Céline_Ripoll</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Céline Ripoll (née en 1977) est une auteure, conteuse et écrivaine notamment en littérature jeunesse, spécialisée dans les cultures de l'Océanie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9line_Ripoll</t>
+          <t>Céline_Ripoll</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Céline Ripoll est née à Berlin, Allemagne.
 De 1991 à 1994, elle est étudiante en Arts Appliqués au Lycée François Magendie de Bordeaux.
 En 1996 elle obtient un BTS en design industriel céramique de l’École nationale supérieure des arts appliqués et des métiers d'art, Paris 15e.
 Elle se forme à l'art du conte en 2002 au conservatoire du 12e arr de Paris. Etudie durant 2 ans l'art du clown au Samovar à Bagnolet. En 2005 elle part pour un premier voyage en Polynésie française.  
 Elle est sollicitée en 2006, par le Musée du Quai Branly pour créer une visite contée sur les collections océaniennes. En 2007, elle part sur l'île de Pâques, et y recueille les paroles d'un peuple de survivants. 
-Elle s'est établie sur l'île de Pâques en 2012. Maman de deux petites filles métisses franco-Rapa Nui, elle crée en 2016 sa maison d’éditions, Moai Editions. Elle a publié plusieurs albums, aux éditions du Sorbier, aux éditions Grandir, aux éditions Syros, pour Moai Editions, pour le Seuil jeunesse, La Martinière jeunesse, ainsi que cinq recueils dans la collection Contes des sages au Seuil[1],[2],[3],[4],[5].
+Elle s'est établie sur l'île de Pâques en 2012. Maman de deux petites filles métisses franco-Rapa Nui, elle crée en 2016 sa maison d’éditions, Moai Editions. Elle a publié plusieurs albums, aux éditions du Sorbier, aux éditions Grandir, aux éditions Syros, pour Moai Editions, pour le Seuil jeunesse, La Martinière jeunesse, ainsi que cinq recueils dans la collection Contes des sages au Seuil.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9line_Ripoll</t>
+          <t>Céline_Ripoll</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle reçoit le prix 2010 du livre jeunesse de la Fondation des villages d'enfants pour le livre Hina et le prince du lac Vahiria aux éditions du Sorbier.
 Pour le livre Fosfore et les contes des sages, elle reçoit en 2023 le prix du public du meilleur livre audio francophone, C.N.L, La plume de Paon, Institut français.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A9line_Ripoll</t>
+          <t>Céline_Ripoll</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Elle a participé à de nombreuses œuvres en tant auteure[6],[7] dont :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Elle a participé à de nombreuses œuvres en tant auteure, dont :
 Hina et le prince du lac Vahiria : un conte de Tahiti illustrations de Daniela Cytryn, le Sorbier, 2009
 Le jade des Maori, illustrations de Pascale Roux, Grandir, 2011
 La Polynésie, illustrations : Guy Lillo, Grandir, 2011
